--- a/inputs/data_raw/Data_MEPERS_Demographics_20200630.xlsx
+++ b/inputs/data_raw/Data_MEPERS_Demographics_20200630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_PewRiskSharing\model_MEPERS\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5565EF-5AF9-4125-881A-3D247D3AB6FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD23E53-3244-4F86-BA7D-A8EF7B6D4E9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="other" sheetId="37" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="179">
   <si>
     <t>TOC</t>
   </si>
@@ -270,8 +270,1075 @@
     <t>65-69</t>
   </si>
   <si>
-    <r>
-      <t>40-</t>
+    <t>Source: AV2020 np43, extracted using GetData</t>
+  </si>
+  <si>
+    <t>100 and older</t>
+  </si>
+  <si>
+    <t>100 and over</t>
+  </si>
+  <si>
+    <t>Ratios (gender, occupation)</t>
+  </si>
+  <si>
+    <t>Source: AV2020, np71-72, extracted by Nuance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Distribution of Active Members</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>As of June 30, 2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Regular Plan Participants</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Years of Service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Totals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Under 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1 to 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5 to 9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10 to 14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15 to 19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20 to 24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>25 to 29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>30 to 34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>35 to 39</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>40 and up</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Under 25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>40 to 44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>45 to 49</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50 to 54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>55 to 59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>60 to 64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>65 to 69</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>70 and up</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Total</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">verage Salary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Under 1  1 to 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Years of Service
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15 to 19  20 to 24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Average</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  35,453</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  53,607</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  27,072</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  31,774</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  42,420</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  51,466</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  58,239</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  55,323</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  56,895</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  61,079</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  63,212</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  64,085</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  47,745</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Special Plan Participants</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Special Plan Participants</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Average Salary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Years of Service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Average</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Under 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 to 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 to 9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 to 14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>15 to 19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>20 to 24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>25 to 29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>30 to 34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>35 to 39</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>40 and up</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Under 25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  52,790</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  55,360</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  0  $</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  48,512</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>40 to 44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>45 to 49</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>50 to 54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>55 to 59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>60 to 64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>65 to 69</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>70 and up</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  56,652</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  64,607</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  71,485</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  76,385  $  77,332</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  81,751</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  78,130</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  78,384</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  60,558</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  65,774</t>
+    </r>
+  </si>
+  <si>
+    <t>source: AV2020 np75</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Distribution of Retirees, Disabled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Members, Beneficiaries, and Survivors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>As of June 30, 2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Regular Plan Participants</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Count</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Annual Benefit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Under 45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  299,282</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>45 to 49</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50 to 54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>55 to 59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>60 to 64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>65 to 69</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>70 to 74</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>75 to 79</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>80 to 84</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>85 to 89</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>90 &amp; up</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Total</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Special Plan Participants  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Annual Benefit Distribution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>$  270,259</t>
+    </r>
+  </si>
+  <si>
+    <t>70 and up</t>
+  </si>
+  <si>
+    <r>
+      <t>70-</t>
     </r>
     <r>
       <rPr>
@@ -280,1099 +1347,90 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>45</t>
-    </r>
-  </si>
-  <si>
-    <t>Source: AV2020 np43, extracted using GetData</t>
-  </si>
-  <si>
-    <t>100 and older</t>
-  </si>
-  <si>
-    <t>100 and over</t>
-  </si>
-  <si>
-    <t>Ratios (gender, occupation)</t>
-  </si>
-  <si>
-    <t>Source: AV2020, np71-72, extracted by Nuance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Distribution of Active Members</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>As of June 30, 2020</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Regular Plan Participants</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Years of Service</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Totals</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Under 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1 to 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5 to 9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10 to 14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>15 to 19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20 to 24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>25 to 29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>30 to 34</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>35 to 39</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>40 and up</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Under 25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>40 to 44</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>45 to 49</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50 to 54</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>55 to 59</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>60 to 64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>65 to 69</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>70 and up</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Total</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">verage Salary
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Under 1  1 to 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Years of Service
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>15 to 19  20 to 24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Average</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  35,453</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  53,607</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  27,072</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  31,774</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  42,420</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  51,466</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  58,239</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  55,323</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  56,895</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  61,079</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  63,212</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  64,085</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  47,745</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Special Plan Participants</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Special Plan Participants</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Average Salary
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Years of Service</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Average</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Under 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 to 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>5 to 9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>10 to 14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>15 to 19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>20 to 24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>25 to 29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>30 to 34</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>35 to 39</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>40 and up</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Under 25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  52,790</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  55,360</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  0  $</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  48,512</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>40 to 44</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>45 to 49</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>50 to 54</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>55 to 59</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>60 to 64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>65 to 69</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>70 and up</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  56,652</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  64,607</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  71,485</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  76,385  $  77,332</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  81,751</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  78,130</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  78,384</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  60,558</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>$  65,774</t>
-    </r>
-  </si>
-  <si>
-    <t>source: AV2020 np75</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Distribution of Retirees, Disabled</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Members, Beneficiaries, and Survivors</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>As of June 30, 2020</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Regular Plan Participants</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Age</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Count</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Annual Benefit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Under 45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  299,282</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>45 to 49</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50 to 54</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>55 to 59</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>60 to 64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>65 to 69</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>70 to 74</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>75 to 79</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>80 to 84</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>85 to 89</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>90 &amp; up</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Total</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  104,555,480</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Special Plan Participants  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Annual Benefit Distribution</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  270,259</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>$  64,952,714</t>
-    </r>
-  </si>
-  <si>
-    <t>70 and up</t>
-  </si>
-  <si>
-    <r>
-      <t>70-</t>
+      <t>74</t>
+    </r>
+  </si>
+  <si>
+    <t>under 1</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>40 and up'</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>D7:P30</t>
+  </si>
+  <si>
+    <t>benefit_tot</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>80-84</t>
+  </si>
+  <si>
+    <t>85-89</t>
+  </si>
+  <si>
+    <t>90-94</t>
+  </si>
+  <si>
+    <t>retirees_all</t>
+  </si>
+  <si>
+    <t>D6:G17</t>
+  </si>
+  <si>
+    <t>Under 45</t>
+  </si>
+  <si>
+    <t>45 to 49</t>
+  </si>
+  <si>
+    <t>50 to 54</t>
+  </si>
+  <si>
+    <t>55 to 59</t>
+  </si>
+  <si>
+    <t>60 to 64</t>
+  </si>
+  <si>
+    <t>65 to 69</t>
+  </si>
+  <si>
+    <t>70 to 74</t>
+  </si>
+  <si>
+    <t>75 to 79</t>
+  </si>
+  <si>
+    <t>80 to 84</t>
+  </si>
+  <si>
+    <t>85 to 89</t>
+  </si>
+  <si>
+    <t>90 &amp; up</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>n_retirees_all</t>
+  </si>
+  <si>
+    <r>
+      <t>40-</t>
     </r>
     <r>
       <rPr>
@@ -1381,96 +1439,32 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>74</t>
-    </r>
-  </si>
-  <si>
-    <t>under 1</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>40 and up'</t>
-  </si>
-  <si>
-    <t>regular</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>D7:P30</t>
-  </si>
-  <si>
-    <t>benefit_tot</t>
-  </si>
-  <si>
-    <t>75-79</t>
-  </si>
-  <si>
-    <t>80-84</t>
-  </si>
-  <si>
-    <t>85-89</t>
-  </si>
-  <si>
-    <t>90-94</t>
-  </si>
-  <si>
-    <t>retirees_all</t>
-  </si>
-  <si>
-    <t>D6:G17</t>
-  </si>
-  <si>
-    <t>Under 45</t>
-  </si>
-  <si>
-    <t>45 to 49</t>
-  </si>
-  <si>
-    <t>50 to 54</t>
-  </si>
-  <si>
-    <t>55 to 59</t>
-  </si>
-  <si>
-    <t>60 to 64</t>
-  </si>
-  <si>
-    <t>65 to 69</t>
-  </si>
-  <si>
-    <t>70 to 74</t>
-  </si>
-  <si>
-    <t>75 to 79</t>
-  </si>
-  <si>
-    <t>80 to 84</t>
-  </si>
-  <si>
-    <t>85 to 89</t>
-  </si>
-  <si>
-    <t>90 &amp; up</t>
-  </si>
-  <si>
-    <t>0-0</t>
-  </si>
-  <si>
-    <t>n_retirees_all</t>
+      <t>44</t>
+    </r>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>active members, as of June30, 2020</t>
+  </si>
+  <si>
+    <t>servRets, as of June30, 2020</t>
+  </si>
+  <si>
+    <t>disbRet (all), as of June 30, 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1577,6 +1571,14 @@
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1823,7 +1825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2168,9 +2170,6 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2193,6 +2192,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2217,9 +2219,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2239,6 +2244,194 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="APPENDIX B - MEMBERSHIP INFOR.WXTION &#10;Active Member Data as of June 30.2020 &#10;Regular Plan Members &#10;Count &#10;Average Current Age &#10;Average Benefit Service &#10;Average Vesting Service &#10;Average Valuation Pay &#10;Special Plan Members &#10;Count &#10;Average Current Age &#10;Average Benefit Service &#10;Average Vesting Service &#10;Average Valuation Pay &#10;All Plan Members &#10;Count &#10;Average Current Age &#10;Average Benefit Service &#10;Average Vesting Service &#10;Avera &quot;Caluatron P a &#10;S &#10;s &#10;s &#10;8,600 &#10;47.6 &#10;8.6 &#10;47, 745 &#10;3,238 &#10;40.2 &#10;10.3 &#10;10.9 &#10;65,774 &#10;11,838 &#10;45.6 &#10;9.0 &#10;9.4 &#10;52,677 ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97FC496B-D35E-4257-BA33-53061047DA3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6400800" y="952500"/>
+          <a:ext cx="4086225" cy="4067175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Participating Local Districts of the Maine Public Employees Retirement System &#10;Inactive Member Data as of June 30, 2020 &#10;Regular Plans &#10;Retired &#10;Retired - Concurrent Beneficiary &#10;Disability Section 1 122 &#10;Disability Sections 3 and 3A &#10;Beneficiary of Above &#10;Pre-Retlrement Death Beneficiary &#10;Terminated Vested &#10;Due Refund &#10;Count &#10;5,648 &#10;375 &#10;25 &#10;266 &#10;1 ,034 &#10;136 &#10;2,074 &#10;8,606 &#10;Average &#10;Age &#10;73.1 &#10;71.7 &#10;76.7 &#10;66_5 &#10;74_0 &#10;73.1 &#10;53.3 &#10;Total &#10;Annual Benefit &#10;329,481 &#10;874,197 &#10;Average &#10;Annual Benefit &#10;s 15,085 &#10;3,650 &#10;13,179 &#10;21,828 &#10;10,615 &#10;6,428 &#10;5,224 ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C72B99-BAE2-41AD-96A7-753166F6076A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10534650" y="1276350"/>
+          <a:ext cx="4591050" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Participating Local Districts of the Maine Public Employees Retirement System &#10;Inactive Member Data as of June 30, 2020 &#10;Special Plans &#10;Retired &#10;Retired - Concurrent Beneficiary &#10;Disability Section 1122 &#10;Disability Sections 3 and 3A &#10;Beneficiary of Above &#10;Pre-Retlrement Death Beneficiary &#10;Terminated Vested &#10;Due Refund &#10;Count &#10;1,574 &#10;380 &#10;18 &#10;81 &#10;297 &#10;26 &#10;328 &#10;160 &#10;Average &#10;Age &#10;68.2 &#10;67.4 &#10;74.3 &#10;61.2 &#10;73.2 &#10;65.3 &#10;47.2 &#10;Total &#10;Annual Benefit &#10;402,225 &#10;185,199 &#10;3,091 ,S43 &#10;Average &#10;Annual Benefit &#10;s 34,154 &#10;6,713 &#10;22,346 &#10;31,306 &#10;18,586 &#10;7,123 &#10;9,426 ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE779B07-79BC-4C49-80C8-FAD0AFF716D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10496551" y="3200400"/>
+          <a:ext cx="4781550" cy="1904845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2331,7 +2524,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2424,7 +2617,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2736,21 +2929,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812416DD-F418-48F2-BDB4-52F7049A5468}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="134" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5">
+        <v>8600</v>
+      </c>
+      <c r="C5" s="133">
+        <f>B5/$B$7</f>
+        <v>0.72647406656529823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6">
+        <v>3238</v>
+      </c>
+      <c r="C6" s="133">
+        <f>B6/$B$7</f>
+        <v>0.27352593343470183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B5:B6)</f>
+        <v>11838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10">
+        <v>5648</v>
+      </c>
+      <c r="C10" s="133">
+        <f>B10/$B$12</f>
+        <v>0.7820548324563833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11">
+        <v>1574</v>
+      </c>
+      <c r="C11" s="133">
+        <f>B11/$B$12</f>
+        <v>0.21794516754361673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B10:B11)</f>
+        <v>7222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15">
+        <f>25+266</f>
+        <v>291</v>
+      </c>
+      <c r="C15" s="133">
+        <f>B15/$B$17</f>
+        <v>0.74615384615384617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16">
+        <f>18+81</f>
+        <v>99</v>
+      </c>
+      <c r="C16" s="133">
+        <f>B16/$B$17</f>
+        <v>0.25384615384615383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B15:B16)</f>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2759,7 +3073,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2782,7 +3096,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2790,7 +3104,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2809,10 +3123,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>1</v>
@@ -2836,7 +3150,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2888,11 +3202,11 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="133" t="s">
-        <v>175</v>
+      <c r="G8" s="124" t="s">
+        <v>172</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>14</v>
@@ -2916,7 +3230,7 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3361,7 +3675,7 @@
     </row>
     <row r="19" spans="3:16">
       <c r="C19" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>19</v>
@@ -3370,7 +3684,7 @@
         <v>72</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G19" s="14">
         <v>14</v>
@@ -3845,7 +4159,7 @@
     </row>
     <row r="30" spans="3:16">
       <c r="C30" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>21</v>
@@ -3854,7 +4168,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G30" s="16">
         <v>18813</v>
@@ -3900,7 +4214,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:P19"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3923,7 +4237,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3931,7 +4245,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3950,10 +4264,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>1</v>
@@ -3977,7 +4291,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4030,10 +4344,10 @@
       <c r="E8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>14</v>
@@ -4057,7 +4371,7 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4502,7 +4816,7 @@
     </row>
     <row r="19" spans="3:16">
       <c r="C19" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>19</v>
@@ -4511,7 +4825,7 @@
         <v>72</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G19" s="14">
         <v>0</v>
@@ -4986,7 +5300,7 @@
     </row>
     <row r="30" spans="3:16">
       <c r="C30" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>21</v>
@@ -4995,7 +5309,7 @@
         <v>72</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G30" s="16">
         <v>0</v>
@@ -5040,8 +5354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1179E105-16C0-41C6-9FC9-A346646159A7}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5062,7 +5376,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5070,7 +5384,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5082,382 +5396,382 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="24">
-      <c r="C6" s="117"/>
-      <c r="D6" s="118" t="s">
+      <c r="C6" s="116"/>
+      <c r="D6" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="119" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="119" t="s">
+      <c r="F6" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="118" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="116"/>
+      <c r="N6" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="118" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q6" s="118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="C7" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="120">
+        <v>42</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="121">
+        <v>48</v>
+      </c>
+      <c r="G7" s="121">
+        <v>299282</v>
+      </c>
+      <c r="M7" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="N7" s="120">
+        <v>42</v>
+      </c>
+      <c r="O7" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="121">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="121">
+        <v>299282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="C8" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="120">
+        <v>47</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="121">
+        <v>35</v>
+      </c>
+      <c r="G8" s="121">
+        <v>305303</v>
+      </c>
+      <c r="M8" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="120">
+        <v>47</v>
+      </c>
+      <c r="O8" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="121">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="121">
+        <v>305303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="C9" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="120">
+        <v>52</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="121">
+        <v>75</v>
+      </c>
+      <c r="G9" s="121">
+        <v>1080552</v>
+      </c>
+      <c r="M9" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="N9" s="120">
+        <v>52</v>
+      </c>
+      <c r="O9" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="121">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="121">
+        <v>1080552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="C10" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="120">
+        <v>57</v>
+      </c>
+      <c r="E10" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="121">
+        <v>167</v>
+      </c>
+      <c r="G10" s="121">
+        <v>2621153</v>
+      </c>
+      <c r="M10" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" s="120">
+        <v>57</v>
+      </c>
+      <c r="O10" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="121">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="121">
+        <v>2621153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="C11" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="120">
+        <v>62</v>
+      </c>
+      <c r="E11" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="121">
+        <v>911</v>
+      </c>
+      <c r="G11" s="121">
+        <v>15151083</v>
+      </c>
+      <c r="M11" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="N11" s="120">
+        <v>62</v>
+      </c>
+      <c r="O11" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="121">
+        <v>911</v>
+      </c>
+      <c r="Q11" s="121">
+        <v>15151083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="C12" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="120">
+        <v>67</v>
+      </c>
+      <c r="E12" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="121">
+        <v>1812</v>
+      </c>
+      <c r="G12" s="121">
+        <v>27977407</v>
+      </c>
+      <c r="M12" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="N12" s="120">
+        <v>67</v>
+      </c>
+      <c r="O12" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="121">
+        <v>1812</v>
+      </c>
+      <c r="Q12" s="121">
+        <v>27977407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="C13" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="120">
+        <v>72</v>
+      </c>
+      <c r="E13" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="121">
+        <v>1646</v>
+      </c>
+      <c r="G13" s="121">
+        <v>23895970</v>
+      </c>
+      <c r="M13" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13" s="120">
+        <v>72</v>
+      </c>
+      <c r="O13" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="121">
+        <v>1646</v>
+      </c>
+      <c r="Q13" s="121">
+        <v>23895970</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="C14" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="120">
+        <v>77</v>
+      </c>
+      <c r="E14" s="120" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="121">
+        <v>1144</v>
+      </c>
+      <c r="G14" s="121">
+        <v>14802666</v>
+      </c>
+      <c r="M14" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" s="120">
+        <v>77</v>
+      </c>
+      <c r="O14" s="120" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" s="121">
+        <v>1144</v>
+      </c>
+      <c r="Q14" s="121">
+        <v>14802666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="C15" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="120">
+        <v>82</v>
+      </c>
+      <c r="E15" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="121">
+        <v>806</v>
+      </c>
+      <c r="G15" s="121">
+        <v>9906934</v>
+      </c>
+      <c r="M15" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15" s="120">
+        <v>82</v>
+      </c>
+      <c r="O15" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="P15" s="121">
+        <v>806</v>
+      </c>
+      <c r="Q15" s="121">
+        <v>9906934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="C16" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="120">
+        <v>87</v>
+      </c>
+      <c r="E16" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="117"/>
-      <c r="N6" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="119" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q6" s="119" t="s">
+      <c r="F16" s="121">
+        <v>493</v>
+      </c>
+      <c r="G16" s="121">
+        <v>5381150</v>
+      </c>
+      <c r="M16" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="N16" s="120">
+        <v>87</v>
+      </c>
+      <c r="O16" s="120" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="C7" s="120" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="121">
-        <v>42</v>
-      </c>
-      <c r="E7" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="122">
-        <v>48</v>
-      </c>
-      <c r="G7" s="122">
-        <v>299282</v>
-      </c>
-      <c r="M7" s="120" t="s">
-        <v>164</v>
-      </c>
-      <c r="N7" s="121">
-        <v>42</v>
-      </c>
-      <c r="O7" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="122">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="122">
-        <v>299282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="C8" s="120" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="121">
-        <v>47</v>
-      </c>
-      <c r="E8" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="122">
-        <v>35</v>
-      </c>
-      <c r="G8" s="122">
-        <v>305303</v>
-      </c>
-      <c r="M8" s="120" t="s">
-        <v>165</v>
-      </c>
-      <c r="N8" s="121">
-        <v>47</v>
-      </c>
-      <c r="O8" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="122">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="122">
-        <v>305303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="C9" s="120" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="121">
-        <v>52</v>
-      </c>
-      <c r="E9" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="122">
-        <v>75</v>
-      </c>
-      <c r="G9" s="122">
-        <v>1080552</v>
-      </c>
-      <c r="M9" s="120" t="s">
-        <v>166</v>
-      </c>
-      <c r="N9" s="121">
-        <v>52</v>
-      </c>
-      <c r="O9" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="122">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="122">
-        <v>1080552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="C10" s="120" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="121">
-        <v>57</v>
-      </c>
-      <c r="E10" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="122">
-        <v>167</v>
-      </c>
-      <c r="G10" s="122">
-        <v>2621153</v>
-      </c>
-      <c r="M10" s="120" t="s">
-        <v>167</v>
-      </c>
-      <c r="N10" s="121">
-        <v>57</v>
-      </c>
-      <c r="O10" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="122">
-        <v>167</v>
-      </c>
-      <c r="Q10" s="122">
-        <v>2621153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="C11" s="120" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="121">
-        <v>62</v>
-      </c>
-      <c r="E11" s="121" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="122">
-        <v>911</v>
-      </c>
-      <c r="G11" s="122">
-        <v>15151083</v>
-      </c>
-      <c r="M11" s="120" t="s">
-        <v>168</v>
-      </c>
-      <c r="N11" s="121">
-        <v>62</v>
-      </c>
-      <c r="O11" s="121" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="122">
-        <v>911</v>
-      </c>
-      <c r="Q11" s="122">
-        <v>15151083</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="C12" s="120" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="121">
-        <v>67</v>
-      </c>
-      <c r="E12" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="122">
-        <v>1812</v>
-      </c>
-      <c r="G12" s="122">
-        <v>27977407</v>
-      </c>
-      <c r="M12" s="120" t="s">
-        <v>169</v>
-      </c>
-      <c r="N12" s="121">
-        <v>67</v>
-      </c>
-      <c r="O12" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="122">
-        <v>1812</v>
-      </c>
-      <c r="Q12" s="122">
-        <v>27977407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="C13" s="120" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="121">
-        <v>72</v>
-      </c>
-      <c r="E13" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="122">
-        <v>1646</v>
-      </c>
-      <c r="G13" s="122">
-        <v>23895970</v>
-      </c>
-      <c r="M13" s="120" t="s">
-        <v>170</v>
-      </c>
-      <c r="N13" s="121">
-        <v>72</v>
-      </c>
-      <c r="O13" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" s="122">
-        <v>1646</v>
-      </c>
-      <c r="Q13" s="122">
-        <v>23895970</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="C14" s="120" t="s">
+      <c r="P16" s="121">
+        <v>493</v>
+      </c>
+      <c r="Q16" s="121">
+        <v>5381150</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="121">
-        <v>77</v>
-      </c>
-      <c r="E14" s="121" t="s">
+      <c r="D17" s="120">
+        <v>92</v>
+      </c>
+      <c r="E17" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="122">
-        <v>1144</v>
-      </c>
-      <c r="G14" s="122">
-        <v>14802666</v>
-      </c>
-      <c r="M14" s="120" t="s">
+      <c r="F17" s="122">
+        <v>347</v>
+      </c>
+      <c r="G17" s="122">
+        <v>3133980</v>
+      </c>
+      <c r="M17" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="N14" s="121">
-        <v>77</v>
-      </c>
-      <c r="O14" s="121" t="s">
+      <c r="N17" s="120">
+        <v>92</v>
+      </c>
+      <c r="O17" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="P14" s="122">
-        <v>1144</v>
-      </c>
-      <c r="Q14" s="122">
-        <v>14802666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="C15" s="120" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="121">
-        <v>82</v>
-      </c>
-      <c r="E15" s="121" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="122">
-        <v>806</v>
-      </c>
-      <c r="G15" s="122">
-        <v>9906934</v>
-      </c>
-      <c r="M15" s="120" t="s">
-        <v>172</v>
-      </c>
-      <c r="N15" s="121">
-        <v>82</v>
-      </c>
-      <c r="O15" s="121" t="s">
-        <v>159</v>
-      </c>
-      <c r="P15" s="122">
-        <v>806</v>
-      </c>
-      <c r="Q15" s="122">
-        <v>9906934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="C16" s="120" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="121">
-        <v>87</v>
-      </c>
-      <c r="E16" s="121" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="122">
-        <v>493</v>
-      </c>
-      <c r="G16" s="122">
-        <v>5381150</v>
-      </c>
-      <c r="M16" s="120" t="s">
-        <v>173</v>
-      </c>
-      <c r="N16" s="121">
-        <v>87</v>
-      </c>
-      <c r="O16" s="121" t="s">
-        <v>160</v>
-      </c>
-      <c r="P16" s="122">
-        <v>493</v>
-      </c>
-      <c r="Q16" s="122">
-        <v>5381150</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17">
-      <c r="C17" s="120" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="121">
-        <v>92</v>
-      </c>
-      <c r="E17" s="121" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="123">
+      <c r="P17" s="122">
         <v>347</v>
       </c>
-      <c r="G17" s="123">
-        <v>3133980</v>
-      </c>
-      <c r="M17" s="120" t="s">
-        <v>174</v>
-      </c>
-      <c r="N17" s="121">
-        <v>92</v>
-      </c>
-      <c r="O17" s="121" t="s">
-        <v>161</v>
-      </c>
-      <c r="P17" s="123">
-        <v>347</v>
-      </c>
-      <c r="Q17" s="123">
+      <c r="Q17" s="122">
         <v>3133980</v>
       </c>
     </row>
@@ -5708,7 +6022,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G7" sqref="G7:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5729,7 +6043,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5737,7 +6051,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5749,217 +6063,217 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="C6" s="117"/>
-      <c r="D6" s="118" t="s">
+      <c r="C6" s="116"/>
+      <c r="D6" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="119" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="119" t="s">
+      <c r="F6" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="120">
+        <v>42</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="121">
+        <v>16</v>
+      </c>
+      <c r="G7" s="121">
+        <v>270259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="120">
+        <v>47</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="121">
+        <v>58</v>
+      </c>
+      <c r="G8" s="121">
+        <v>1707096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="120">
+        <v>52</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="121">
+        <v>186</v>
+      </c>
+      <c r="G9" s="121">
+        <v>5764136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="120">
+        <v>57</v>
+      </c>
+      <c r="E10" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="121">
+        <v>305</v>
+      </c>
+      <c r="G10" s="121">
+        <v>9227742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="120">
+        <v>62</v>
+      </c>
+      <c r="E11" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="121">
+        <v>315</v>
+      </c>
+      <c r="G11" s="121">
+        <v>9743620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="120">
+        <v>67</v>
+      </c>
+      <c r="E12" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="121">
+        <v>390</v>
+      </c>
+      <c r="G12" s="121">
+        <v>11629598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="120">
+        <v>72</v>
+      </c>
+      <c r="E13" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="121">
+        <v>464</v>
+      </c>
+      <c r="G13" s="121">
+        <v>12022476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="120">
+        <v>77</v>
+      </c>
+      <c r="E14" s="120" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="121">
+        <v>320</v>
+      </c>
+      <c r="G14" s="121">
+        <v>7956815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="120">
+        <v>82</v>
+      </c>
+      <c r="E15" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="121">
+        <v>169</v>
+      </c>
+      <c r="G15" s="121">
+        <v>3671738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="120">
+        <v>87</v>
+      </c>
+      <c r="E16" s="120" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="C7" s="120" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="121">
-        <v>42</v>
-      </c>
-      <c r="E7" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="122">
-        <v>16</v>
-      </c>
-      <c r="G7" s="122">
-        <v>270259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="120" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="121">
-        <v>47</v>
-      </c>
-      <c r="E8" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="122">
-        <v>58</v>
-      </c>
-      <c r="G8" s="122">
-        <v>1707096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" s="120" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="121">
-        <v>52</v>
-      </c>
-      <c r="E9" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="122">
-        <v>186</v>
-      </c>
-      <c r="G9" s="122">
-        <v>5764136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" s="120" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="121">
-        <v>57</v>
-      </c>
-      <c r="E10" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="122">
-        <v>305</v>
-      </c>
-      <c r="G10" s="122">
-        <v>9227742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" s="120" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="121">
-        <v>62</v>
-      </c>
-      <c r="E11" s="121" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="122">
-        <v>315</v>
-      </c>
-      <c r="G11" s="122">
-        <v>9743620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" s="120" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="121">
-        <v>67</v>
-      </c>
-      <c r="E12" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="122">
-        <v>390</v>
-      </c>
-      <c r="G12" s="122">
-        <v>11629598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="120" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="121">
-        <v>72</v>
-      </c>
-      <c r="E13" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="122">
-        <v>464</v>
-      </c>
-      <c r="G13" s="122">
-        <v>12022476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="120" t="s">
+      <c r="F16" s="121">
+        <v>94</v>
+      </c>
+      <c r="G16" s="121">
+        <v>1885703</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="121">
-        <v>77</v>
-      </c>
-      <c r="E14" s="121" t="s">
+      <c r="D17" s="120">
+        <v>92</v>
+      </c>
+      <c r="E17" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="122">
-        <v>320</v>
-      </c>
-      <c r="G14" s="122">
-        <v>7956815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="120" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="121">
-        <v>82</v>
-      </c>
-      <c r="E15" s="121" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="122">
-        <v>169</v>
-      </c>
-      <c r="G15" s="122">
-        <v>3671738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="120" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="121">
-        <v>87</v>
-      </c>
-      <c r="E16" s="121" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="122">
-        <v>94</v>
-      </c>
-      <c r="G16" s="122">
-        <v>1885703</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="120" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="121">
-        <v>92</v>
-      </c>
-      <c r="E17" s="121" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="123">
+      <c r="F17" s="122">
         <v>59</v>
       </c>
-      <c r="G17" s="123">
+      <c r="G17" s="122">
         <v>1073531</v>
       </c>
     </row>
     <row r="18" spans="3:8">
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5974,8 +6288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E88DF-A66D-4D5B-9543-81B9EF75DDB4}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:M37"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5988,22 +6302,22 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="C6" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="C7" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="C9" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -6013,7 +6327,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="126"/>
       <c r="J10" s="21"/>
@@ -6021,46 +6335,46 @@
       <c r="L10" s="21"/>
       <c r="M10" s="22"/>
       <c r="N10" s="127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="C11" s="125"/>
       <c r="D11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="F11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="G11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="H11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="I11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="J11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="K11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="L11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="M11" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>60</v>
       </c>
       <c r="N11" s="127"/>
     </row>
     <row r="12" spans="1:14">
       <c r="C12" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="27">
         <v>283</v>
@@ -6098,7 +6412,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="C13" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="32">
         <v>147</v>
@@ -6136,7 +6450,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="C14" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="32">
         <v>140</v>
@@ -6174,7 +6488,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="C15" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="32">
         <v>104</v>
@@ -6212,7 +6526,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="C16" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="32">
         <v>136</v>
@@ -6250,7 +6564,7 @@
     </row>
     <row r="17" spans="3:14">
       <c r="C17" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="32">
         <v>127</v>
@@ -6288,7 +6602,7 @@
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="32">
         <v>107</v>
@@ -6326,7 +6640,7 @@
     </row>
     <row r="19" spans="3:14">
       <c r="C19" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="32">
         <v>125</v>
@@ -6364,7 +6678,7 @@
     </row>
     <row r="20" spans="3:14">
       <c r="C20" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="32">
         <v>56</v>
@@ -6402,7 +6716,7 @@
     </row>
     <row r="21" spans="3:14">
       <c r="C21" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="32">
         <v>29</v>
@@ -6440,7 +6754,7 @@
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="38">
         <v>14</v>
@@ -6478,7 +6792,7 @@
     </row>
     <row r="23" spans="3:14">
       <c r="C23" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="43">
         <v>1268</v>
@@ -6516,82 +6830,82 @@
     </row>
     <row r="25" spans="3:14">
       <c r="C25" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="16.5">
       <c r="C26" s="48"/>
       <c r="D26" s="128" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="128"/>
       <c r="F26" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="50" t="s">
-        <v>54</v>
-      </c>
       <c r="H26" s="129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I26" s="129"/>
       <c r="J26" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="L26" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="50" t="s">
+      <c r="M26" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="51" t="s">
-        <v>60</v>
-      </c>
       <c r="N26" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="54">
         <v>20724</v>
       </c>
       <c r="E27" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="G27" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="H27" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" s="57" t="s">
         <v>75</v>
-      </c>
-      <c r="H27" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="N27" s="57" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="59">
         <v>32234</v>
@@ -6629,7 +6943,7 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="59">
         <v>35886</v>
@@ -6667,7 +6981,7 @@
     </row>
     <row r="30" spans="3:14">
       <c r="C30" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="59">
         <v>35012</v>
@@ -6705,7 +7019,7 @@
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="59">
         <v>34567</v>
@@ -6743,7 +7057,7 @@
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="59">
         <v>38104</v>
@@ -6781,7 +7095,7 @@
     </row>
     <row r="33" spans="3:14">
       <c r="C33" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="59">
         <v>35544</v>
@@ -6819,7 +7133,7 @@
     </row>
     <row r="34" spans="3:14">
       <c r="C34" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="59">
         <v>38841</v>
@@ -6857,7 +7171,7 @@
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="59">
         <v>34747</v>
@@ -6895,7 +7209,7 @@
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="59">
         <v>21133</v>
@@ -6933,7 +7247,7 @@
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="65">
         <v>18813</v>
@@ -6971,40 +7285,40 @@
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="70" t="s">
+      <c r="F38" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="G38" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="70" t="s">
+      <c r="H38" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="70" t="s">
+      <c r="I38" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="70" t="s">
+      <c r="J38" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="J38" s="70" t="s">
+      <c r="K38" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="K38" s="70" t="s">
+      <c r="L38" s="70" t="s">
         <v>84</v>
-      </c>
-      <c r="L38" s="70" t="s">
-        <v>85</v>
       </c>
       <c r="M38" s="71">
         <v>60430</v>
       </c>
       <c r="N38" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7025,24 +7339,24 @@
   <dimension ref="C5:N39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="3:14">
       <c r="C5" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="3:14">
       <c r="C6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="3:14">
       <c r="C8" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="3:14">
@@ -7052,7 +7366,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="126"/>
       <c r="J9" s="21"/>
@@ -7060,46 +7374,46 @@
       <c r="L9" s="21"/>
       <c r="M9" s="22"/>
       <c r="N9" s="127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="3:14">
       <c r="C10" s="125"/>
       <c r="D10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="F10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="G10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="K10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="L10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="M10" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>60</v>
       </c>
       <c r="N10" s="127"/>
     </row>
     <row r="11" spans="3:14">
       <c r="C11" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="27">
         <v>86</v>
@@ -7137,7 +7451,7 @@
     </row>
     <row r="12" spans="3:14">
       <c r="C12" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="32">
         <v>43</v>
@@ -7175,7 +7489,7 @@
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="32">
         <v>39</v>
@@ -7213,7 +7527,7 @@
     </row>
     <row r="14" spans="3:14">
       <c r="C14" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="32">
         <v>14</v>
@@ -7251,7 +7565,7 @@
     </row>
     <row r="15" spans="3:14">
       <c r="C15" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="32">
         <v>13</v>
@@ -7289,7 +7603,7 @@
     </row>
     <row r="16" spans="3:14">
       <c r="C16" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="32">
         <v>19</v>
@@ -7327,7 +7641,7 @@
     </row>
     <row r="17" spans="3:14">
       <c r="C17" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="32">
         <v>7</v>
@@ -7365,7 +7679,7 @@
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="32">
         <v>4</v>
@@ -7403,7 +7717,7 @@
     </row>
     <row r="19" spans="3:14">
       <c r="C19" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="32">
         <v>2</v>
@@ -7441,7 +7755,7 @@
     </row>
     <row r="20" spans="3:14">
       <c r="C20" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="32">
         <v>0</v>
@@ -7479,7 +7793,7 @@
     </row>
     <row r="21" spans="3:14">
       <c r="C21" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="38">
         <v>0</v>
@@ -7517,7 +7831,7 @@
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="72">
         <v>227</v>
@@ -7555,7 +7869,7 @@
     </row>
     <row r="25" spans="3:14">
       <c r="C25" s="73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="3:14">
@@ -7565,7 +7879,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="131" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I26" s="131"/>
       <c r="J26" s="21"/>
@@ -7573,84 +7887,84 @@
       <c r="L26" s="21"/>
       <c r="M26" s="22"/>
       <c r="N26" s="132" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="125"/>
       <c r="D27" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="75" t="s">
+      <c r="F27" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="75" t="s">
+      <c r="G27" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="75" t="s">
+      <c r="H27" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="I27" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="J27" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="75" t="s">
+      <c r="K27" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="K27" s="75" t="s">
+      <c r="L27" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="L27" s="75" t="s">
+      <c r="M27" s="77" t="s">
         <v>99</v>
-      </c>
-      <c r="M27" s="77" t="s">
-        <v>100</v>
       </c>
       <c r="N27" s="132"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="79">
         <v>40345</v>
       </c>
       <c r="E28" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="80" t="s">
+      <c r="G28" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="H28" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="80" t="s">
+      <c r="I28" s="81">
+        <v>0</v>
+      </c>
+      <c r="J28" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="M28" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="N28" s="83" t="s">
         <v>105</v>
-      </c>
-      <c r="I28" s="81">
-        <v>0</v>
-      </c>
-      <c r="J28" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="M28" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="N28" s="83" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="85">
         <v>44124</v>
@@ -7688,7 +8002,7 @@
     </row>
     <row r="30" spans="3:14">
       <c r="C30" s="84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="85">
         <v>41460</v>
@@ -7726,7 +8040,7 @@
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="85">
         <v>46822</v>
@@ -7764,7 +8078,7 @@
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="85">
         <v>44915</v>
@@ -7802,7 +8116,7 @@
     </row>
     <row r="33" spans="3:14">
       <c r="C33" s="84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="85">
         <v>42339</v>
@@ -7840,7 +8154,7 @@
     </row>
     <row r="34" spans="3:14">
       <c r="C34" s="84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="85">
         <v>54989</v>
@@ -7878,7 +8192,7 @@
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="85">
         <v>51927</v>
@@ -7916,7 +8230,7 @@
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="85">
         <v>23529</v>
@@ -7954,7 +8268,7 @@
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="93">
         <v>0</v>
@@ -7992,7 +8306,7 @@
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="95">
         <v>0</v>
@@ -8030,38 +8344,38 @@
     </row>
     <row r="39" spans="3:14">
       <c r="C39" s="101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D39" s="102">
         <v>42588</v>
       </c>
       <c r="E39" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="103" t="s">
+      <c r="G39" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="103" t="s">
+      <c r="H39" s="130" t="s">
         <v>116</v>
-      </c>
-      <c r="H39" s="130" t="s">
-        <v>117</v>
       </c>
       <c r="I39" s="130"/>
       <c r="J39" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="K39" s="103" t="s">
+      <c r="L39" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="103" t="s">
+      <c r="M39" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="104" t="s">
+      <c r="N39" s="105" t="s">
         <v>121</v>
-      </c>
-      <c r="N39" s="105" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -8083,8 +8397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F08D4E-591D-474D-A8D2-370BC4CDCCC6}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8100,60 +8414,60 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1"/>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" s="106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="E18" s="108" t="s">
         <v>129</v>
-      </c>
-      <c r="E18" s="108" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="110">
         <v>48</v>
       </c>
       <c r="E19" s="111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="110">
         <v>35</v>
@@ -8164,7 +8478,7 @@
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="110">
         <v>75</v>
@@ -8175,7 +8489,7 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="110">
         <v>167</v>
@@ -8186,7 +8500,7 @@
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="110">
         <v>911</v>
@@ -8197,7 +8511,7 @@
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" s="112">
         <v>1812</v>
@@ -8208,7 +8522,7 @@
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="112">
         <v>1646</v>
@@ -8219,7 +8533,7 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="112">
         <v>1144</v>
@@ -8230,7 +8544,7 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="110">
         <v>806</v>
@@ -8241,7 +8555,7 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" s="110">
         <v>493</v>
@@ -8252,7 +8566,7 @@
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="113">
         <v>347</v>
@@ -8263,50 +8577,50 @@
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="115">
         <v>7484</v>
       </c>
-      <c r="E30" s="116" t="s">
-        <v>144</v>
+      <c r="E30" s="135">
+        <v>104555480</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="108" t="s">
+      <c r="E35" s="108" t="s">
         <v>129</v>
-      </c>
-      <c r="E35" s="108" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" s="110">
         <v>16</v>
       </c>
       <c r="E36" s="111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D37" s="110">
         <v>58</v>
@@ -8317,7 +8631,7 @@
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D38" s="110">
         <v>186</v>
@@ -8328,7 +8642,7 @@
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="110">
         <v>305</v>
@@ -8339,7 +8653,7 @@
     </row>
     <row r="40" spans="3:5">
       <c r="C40" s="109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D40" s="110">
         <v>315</v>
@@ -8350,7 +8664,7 @@
     </row>
     <row r="41" spans="3:5">
       <c r="C41" s="109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D41" s="110">
         <v>390</v>
@@ -8361,7 +8675,7 @@
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="110">
         <v>464</v>
@@ -8372,7 +8686,7 @@
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="110">
         <v>320</v>
@@ -8383,7 +8697,7 @@
     </row>
     <row r="44" spans="3:5">
       <c r="C44" s="109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="110">
         <v>169</v>
@@ -8394,7 +8708,7 @@
     </row>
     <row r="45" spans="3:5">
       <c r="C45" s="109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="110">
         <v>94</v>
@@ -8405,7 +8719,7 @@
     </row>
     <row r="46" spans="3:5">
       <c r="C46" s="109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="110">
         <v>59</v>
@@ -8416,18 +8730,24 @@
     </row>
     <row r="47" spans="3:5">
       <c r="C47" s="109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="112">
         <v>2376</v>
       </c>
-      <c r="E47" s="116" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
+      <c r="E47" s="135">
+        <v>64952714</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="E49" s="136">
+        <f>E30+E47</f>
+        <v>169508194</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
